--- a/02-Homework/04-Python-Pandas/03-Pandas-Project/Mini-Project-Part-1/output/BootcampOutputPart1.xlsx
+++ b/02-Homework/04-Python-Pandas/03-Pandas-Project/Mini-Project-Part-1/output/BootcampOutputPart1.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\98452\gwu-arl-data-pt-09-2020-u-c\02-Homework\04-Python-Pandas\03-Pandas-Project\Mini-Project-Part-1\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Total Surveyed</t>
   </si>
@@ -44,9 +49,6 @@
   </si>
   <si>
     <t>6.10%</t>
-  </si>
-  <si>
-    <t>87.30%</t>
   </si>
   <si>
     <t>59.54%</t>
@@ -64,8 +66,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,17 +119,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -174,7 +185,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -206,9 +217,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,6 +252,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,14 +428,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>15620</v>
       </c>
@@ -464,20 +477,20 @@
       <c r="D2">
         <v>31.07</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2">
+        <v>0.66839999999999999</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
